--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/1.NhanBH/NBH221026_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/1.NhanBH/NBH221026_AnhTuanNB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -78,9 +78,6 @@
     <t>Hà Nội, ngày 26 tháng 10  Năm 2022</t>
   </si>
   <si>
-    <t>TG102LE-4G</t>
-  </si>
-  <si>
     <t>Dây nguồn</t>
   </si>
   <si>
@@ -88,6 +85,18 @@
   </si>
   <si>
     <t>SL : 02</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(GD)</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(STM)</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
   </si>
 </sst>
 </file>
@@ -485,6 +494,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,45 +568,6 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,13 +925,13 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
@@ -933,92 +942,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1045,14 +1054,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" s="17">
         <v>861881051088814</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="21"/>
     </row>
@@ -1061,14 +1070,14 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="17">
         <v>861881051086057</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="21"/>
     </row>
@@ -1077,14 +1086,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" s="17">
         <v>862205051174805</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="21"/>
     </row>
@@ -1093,14 +1102,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" s="17">
         <v>861881054164596</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="21"/>
     </row>
@@ -1109,14 +1118,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15" s="17">
         <v>861881051072313</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="21"/>
     </row>
@@ -1125,14 +1134,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" s="17">
         <v>861881054172169</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="21"/>
     </row>
@@ -1141,14 +1150,14 @@
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17" s="17">
         <v>861881051087352</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="21"/>
     </row>
@@ -1157,14 +1166,14 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18" s="17">
         <v>862205051171157</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="21"/>
     </row>
@@ -1173,14 +1182,14 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C19" s="17">
         <v>861881051084086</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="21"/>
     </row>
@@ -1189,14 +1198,14 @@
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20" s="17">
         <v>862205051198002</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="21"/>
     </row>
@@ -1205,14 +1214,14 @@
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C21" s="17">
         <v>861881054167029</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="21"/>
     </row>
@@ -1221,30 +1230,34 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C22" s="17">
         <v>861881051082957</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C23" s="17">
         <v>862205051196857</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="21"/>
     </row>
@@ -1253,38 +1266,38 @@
         <v>14</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="41" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="48"/>
+      <c r="D26" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
@@ -1320,16 +1333,16 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
@@ -1357,13 +1370,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B7:F7"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="B8:F8"/>
@@ -1372,6 +1378,13 @@
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
